--- a/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/4/UC6_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3526538105939511</v>
+        <v>0.333606191546332</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.35265381059395107, 'ngram_match_score': 0.1558610069341379, 'weighted_ngram_match_score': 0.23779171078683398, 'syntax_match_score': 0.5502958579881657, 'dataflow_match_score': 0.4666666666666667}</t>
+          <t>{'codebleu': 0.33360619154633203, 'ngram_match_score': 0.1558610069341379, 'weighted_ngram_match_score': 0.23779171078683398, 'syntax_match_score': 0.5502958579881657, 'dataflow_match_score': 0.3904761904761905}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
